--- a/songlist.xlsx
+++ b/songlist.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +75,22 @@
   </si>
   <si>
     <t>예수 사랑하심을(제이어스 편곡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈들에 마른풀 같이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 영혼의 그윽히 깊은 데서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은혜로다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말씀하시면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C16"/>
+  <dimension ref="B3:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -519,6 +536,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/songlist.xlsx
+++ b/songlist.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +90,10 @@
   </si>
   <si>
     <t>말씀하시면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 날에</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C20"/>
+  <dimension ref="B3:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,6 +571,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/songlist.xlsx
+++ b/songlist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>마지막 날에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주와같이 길가는것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤이나 낮이나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람을 보며 세상을 볼 땐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C21"/>
+  <dimension ref="B3:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,6 +591,30 @@
         <v>18</v>
       </c>
     </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
